--- a/Projects/Com.RePower.Ocv.Project.WuWei/Documents/二期交互信息   PLC李文聪(1).xlsx
+++ b/Projects/Com.RePower.Ocv.Project.WuWei/Documents/二期交互信息   PLC李文聪(1).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1C4993-FEF6-4E0D-A1C6-218DB7C3AA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76520285-7A62-4415-A1AF-75930CC806EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7215" yWindow="0" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="常规报警信息" sheetId="6" r:id="rId1"/>
@@ -129,14 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1上位机回复可以测试                                     2上位机回复测试完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试结果异常，提示人工干预（三色灯报警）  2——NG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -213,6 +205,15 @@
   </si>
   <si>
     <t>Read_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1上位机回复可以测试
+2上位机回复测试完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果异常，提示人工干预（三色灯报警） (1-OK 2—NG)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1336,7 +1337,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -1353,13 +1354,13 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -1375,7 +1376,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1391,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1">
         <v>1013</v>
@@ -1408,7 +1409,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" s="1">
         <v>1014</v>
@@ -1424,13 +1425,13 @@
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1448,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" x14ac:dyDescent="0.15"/>
@@ -1473,7 +1474,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>9</v>
@@ -1512,7 +1513,7 @@
     </row>
     <row r="10" spans="1:11" ht="83.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>17</v>
@@ -1524,70 +1525,70 @@
         <v>5</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="61.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>25</v>
@@ -1598,22 +1599,22 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I14" s="5"/>
     </row>

--- a/Projects/Com.RePower.Ocv.Project.WuWei/Documents/二期交互信息   PLC李文聪(1).xlsx
+++ b/Projects/Com.RePower.Ocv.Project.WuWei/Documents/二期交互信息   PLC李文聪(1).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76520285-7A62-4415-A1AF-75930CC806EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348535DE-D28C-40AE-9371-6A5AC56EAFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="常规报警信息" sheetId="6" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
   <si>
     <t>操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +214,22 @@
   </si>
   <si>
     <t>测试结果异常，提示人工干预（三色灯报警） (1-OK 2—NG)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Send_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MB1044</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上位机重置PLC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1449,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" x14ac:dyDescent="0.15"/>
@@ -1619,7 +1635,24 @@
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="F15" s="7"/>
+      <c r="A15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F16" s="7"/>
